--- a/Dados/Dados Coletados/Baixo Movimento/Tejipio.xlsx
+++ b/Dados/Dados Coletados/Baixo Movimento/Tejipio.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive\Academico\UPE\Projeto\Dados\Dados Coletados\Baixo Movimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af5036b5c44d2a27/Academico/UPE/IOT/Trabalho1/TrabalhoIOT/WebStreetPE/Dados/Dados Coletados/Baixo Movimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC9C1C-D25A-4A72-A4E9-A7BC73A1347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{EDFC9C1C-D25A-4A72-A4E9-A7BC73A1347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1733B5F7-BDA6-4BD9-B7BA-2A76D5016EA8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9DEEC07-123E-4327-BF7E-92E122267CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9DEEC07-123E-4327-BF7E-92E122267CE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="tejipio (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Final" sheetId="3" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$B$66</definedName>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'tejipio (2)'!$A$1:$B$171</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Final!$B$1:$C$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="71">
   <si>
     <t>R. Aprígio Guimarães</t>
   </si>
@@ -247,26 +247,38 @@
     <t>Tv. Alto Caboclinho</t>
   </si>
   <si>
-    <t>RUA1</t>
-  </si>
-  <si>
-    <t>RUA2</t>
-  </si>
-  <si>
     <t>Ruas</t>
   </si>
   <si>
     <t>Qtd</t>
+  </si>
+  <si>
+    <t>Rua 1</t>
+  </si>
+  <si>
+    <t>Rua 2</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Tejipio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +333,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="2" xr16:uid="{A04A19B8-96B2-40F5-A8F0-BA28B31B0391}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
+  <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="RUA1" tableColumnId="1"/>
       <queryTableField id="2" name="RUA2" tableColumnId="2"/>
@@ -331,11 +343,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDC0270B-FFD2-4518-8871-1CD768653E8D}" name="tejipio__2" displayName="tejipio__2" ref="A1:B171" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B171" xr:uid="{FDC0270B-FFD2-4518-8871-1CD768653E8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDC0270B-FFD2-4518-8871-1CD768653E8D}" name="tejipio__2" displayName="tejipio__2" ref="B1:C186" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:C186" xr:uid="{FDC0270B-FFD2-4518-8871-1CD768653E8D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E8474B55-36DE-4F98-9F43-B7822F14D5DC}" uniqueName="1" name="RUA1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5AEB7207-96B4-494F-A910-2E9CC3FCE14F}" uniqueName="2" name="RUA2" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E8474B55-36DE-4F98-9F43-B7822F14D5DC}" uniqueName="1" name="Rua 1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5AEB7207-96B4-494F-A910-2E9CC3FCE14F}" uniqueName="2" name="Rua 2" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,1389 +650,2067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1177B32-F911-4D77-8EF7-9B1E5A642428}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B171"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>34</v>
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C78" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
       <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>41</v>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>70</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>44</v>
+      <c r="C90" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>70</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>46</v>
+      <c r="C92" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>70</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C93" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
       <c r="B94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>55</v>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>70</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>70</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="1" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>70</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>70</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>70</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B117" s="1" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>70</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>70</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>70</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>70</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>70</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>70</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>70</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>70</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>70</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>70</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2029,7 +2719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BBBA0E-1BB1-47A2-A218-2CF368202EB5}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2037,10 +2727,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2739,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(tejipio__2[],A2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2757,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(tejipio__2[],A4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2775,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(tejipio__2[],A6)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2793,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(tejipio__2[],A8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2838,7 @@
       </c>
       <c r="B13">
         <f>COUNTIF(tejipio__2[],A13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2856,7 @@
       </c>
       <c r="B15">
         <f>COUNTIF(tejipio__2[],A15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2865,7 @@
       </c>
       <c r="B16">
         <f>COUNTIF(tejipio__2[],A16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2874,7 @@
       </c>
       <c r="B17">
         <f>COUNTIF(tejipio__2[],A17)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,7 +2892,7 @@
       </c>
       <c r="B19">
         <f>COUNTIF(tejipio__2[],A19)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2910,7 @@
       </c>
       <c r="B21">
         <f>COUNTIF(tejipio__2[],A21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2919,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(tejipio__2[],A22)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2928,7 @@
       </c>
       <c r="B23">
         <f>COUNTIF(tejipio__2[],A23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2937,7 @@
       </c>
       <c r="B24">
         <f>COUNTIF(tejipio__2[],A24)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2283,7 +2973,7 @@
       </c>
       <c r="B28">
         <f>COUNTIF(tejipio__2[],A28)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +2991,7 @@
       </c>
       <c r="B30">
         <f>COUNTIF(tejipio__2[],A30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2310,7 +3000,7 @@
       </c>
       <c r="B31">
         <f>COUNTIF(tejipio__2[],A31)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +3009,7 @@
       </c>
       <c r="B32">
         <f>COUNTIF(tejipio__2[],A32)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +3018,7 @@
       </c>
       <c r="B33">
         <f>COUNTIF(tejipio__2[],A33)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2355,7 +3045,7 @@
       </c>
       <c r="B36">
         <f>COUNTIF(tejipio__2[],A36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +3072,7 @@
       </c>
       <c r="B39">
         <f>COUNTIF(tejipio__2[],A39)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +3090,7 @@
       </c>
       <c r="B41">
         <f>COUNTIF(tejipio__2[],A41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +3099,7 @@
       </c>
       <c r="B42">
         <f>COUNTIF(tejipio__2[],A42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +3135,7 @@
       </c>
       <c r="B46">
         <f>COUNTIF(tejipio__2[],A46)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +3144,7 @@
       </c>
       <c r="B47">
         <f>COUNTIF(tejipio__2[],A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +3153,7 @@
       </c>
       <c r="B48">
         <f>COUNTIF(tejipio__2[],A48)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +3171,7 @@
       </c>
       <c r="B50">
         <f>COUNTIF(tejipio__2[],A50)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2499,7 +3189,7 @@
       </c>
       <c r="B52">
         <f>COUNTIF(tejipio__2[],A52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +3198,7 @@
       </c>
       <c r="B53">
         <f>COUNTIF(tejipio__2[],A53)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +3216,7 @@
       </c>
       <c r="B55">
         <f>COUNTIF(tejipio__2[],A55)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +3234,7 @@
       </c>
       <c r="B57">
         <f>COUNTIF(tejipio__2[],A57)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +3243,7 @@
       </c>
       <c r="B58">
         <f>COUNTIF(tejipio__2[],A58)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +3252,7 @@
       </c>
       <c r="B59">
         <f>COUNTIF(tejipio__2[],A59)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2571,7 +3261,7 @@
       </c>
       <c r="B60">
         <f>COUNTIF(tejipio__2[],A60)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +3270,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(tejipio__2[],A61)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +3279,7 @@
       </c>
       <c r="B62">
         <f>COUNTIF(tejipio__2[],A62)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2607,7 +3297,7 @@
       </c>
       <c r="B64">
         <f>COUNTIF(tejipio__2[],A64)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
